--- a/直播源汇总文档/其他文档/安徽联通酒店.xlsx
+++ b/直播源汇总文档/其他文档/安徽联通酒店.xlsx
@@ -584,14 +584,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>四川康巴卫视标清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西农林卫视标清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>山东教育卫视标清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -600,10 +592,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>青海安多卫视标清</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>内蒙古蒙语卫视标清</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -629,6 +617,15 @@
   <si>
     <t>逗号</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安多卫视标清</t>
+  </si>
+  <si>
+    <t>康巴卫视标清</t>
+  </si>
+  <si>
+    <t>农林卫视标清</t>
   </si>
 </sst>
 </file>
@@ -998,7 +995,7 @@
         <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
         <v>168</v>
@@ -1010,7 +1007,7 @@
         <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -1018,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -1030,7 +1027,7 @@
         <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1038,7 +1035,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -1050,7 +1047,7 @@
         <v>23</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -1058,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -1070,7 +1067,7 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -1078,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -1090,7 +1087,7 @@
         <v>23</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -1098,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -1110,7 +1107,7 @@
         <v>23</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1118,7 +1115,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -1130,7 +1127,7 @@
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -1138,7 +1135,7 @@
         <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -1150,7 +1147,7 @@
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -1158,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -1170,7 +1167,7 @@
         <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -1178,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -1190,7 +1187,7 @@
         <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -1198,7 +1195,7 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -1210,7 +1207,7 @@
         <v>24</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -1218,7 +1215,7 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -1230,7 +1227,7 @@
         <v>25</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -1238,7 +1235,7 @@
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -1250,7 +1247,7 @@
         <v>25</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -1258,7 +1255,7 @@
         <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -1270,7 +1267,7 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -1278,7 +1275,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -1290,7 +1287,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -1298,7 +1295,7 @@
         <v>2</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -1310,7 +1307,7 @@
         <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -1318,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -1330,7 +1327,7 @@
         <v>26</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -1338,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>165</v>
@@ -1350,7 +1347,7 @@
         <v>26</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -1358,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>165</v>
@@ -1370,7 +1367,7 @@
         <v>26</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -1378,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>165</v>
@@ -1390,7 +1387,7 @@
         <v>26</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -1398,7 +1395,7 @@
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>165</v>
@@ -1410,7 +1407,7 @@
         <v>26</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -1418,7 +1415,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>165</v>
@@ -1430,7 +1427,7 @@
         <v>27</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -1438,7 +1435,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
         <v>165</v>
@@ -1450,7 +1447,7 @@
         <v>27</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -1458,7 +1455,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
         <v>165</v>
@@ -1470,7 +1467,7 @@
         <v>27</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -1478,7 +1475,7 @@
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>165</v>
@@ -1490,7 +1487,7 @@
         <v>27</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -1498,7 +1495,7 @@
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>165</v>
@@ -1510,7 +1507,7 @@
         <v>27</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -1518,7 +1515,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
         <v>165</v>
@@ -1530,7 +1527,7 @@
         <v>28</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -1538,7 +1535,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
         <v>165</v>
@@ -1550,7 +1547,7 @@
         <v>28</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -1558,7 +1555,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>165</v>
@@ -1570,7 +1567,7 @@
         <v>28</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -1578,7 +1575,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
         <v>165</v>
@@ -1590,7 +1587,7 @@
         <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -1598,7 +1595,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
         <v>165</v>
@@ -1610,7 +1607,7 @@
         <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -1618,7 +1615,7 @@
         <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
         <v>165</v>
@@ -1630,7 +1627,7 @@
         <v>29</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -1638,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
         <v>165</v>
@@ -1650,7 +1647,7 @@
         <v>29</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -1658,7 +1655,7 @@
         <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
         <v>165</v>
@@ -1670,7 +1667,7 @@
         <v>29</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -1678,7 +1675,7 @@
         <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
         <v>165</v>
@@ -1690,7 +1687,7 @@
         <v>29</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -1698,7 +1695,7 @@
         <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
         <v>165</v>
@@ -1710,7 +1707,7 @@
         <v>29</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -1718,7 +1715,7 @@
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
         <v>165</v>
@@ -1730,7 +1727,7 @@
         <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -1738,7 +1735,7 @@
         <v>7</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
         <v>165</v>
@@ -1750,7 +1747,7 @@
         <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -1758,7 +1755,7 @@
         <v>7</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
         <v>165</v>
@@ -1770,7 +1767,7 @@
         <v>30</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -1778,7 +1775,7 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
         <v>165</v>
@@ -1790,7 +1787,7 @@
         <v>30</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -1798,7 +1795,7 @@
         <v>7</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
         <v>165</v>
@@ -1810,7 +1807,7 @@
         <v>30</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -1818,7 +1815,7 @@
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
         <v>165</v>
@@ -1830,7 +1827,7 @@
         <v>31</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -1838,7 +1835,7 @@
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
         <v>165</v>
@@ -1850,7 +1847,7 @@
         <v>31</v>
       </c>
       <c r="F43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -1858,7 +1855,7 @@
         <v>8</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
         <v>165</v>
@@ -1870,7 +1867,7 @@
         <v>31</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -1878,7 +1875,7 @@
         <v>8</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
         <v>165</v>
@@ -1890,7 +1887,7 @@
         <v>31</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -1898,7 +1895,7 @@
         <v>8</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
         <v>165</v>
@@ -1910,7 +1907,7 @@
         <v>31</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -1918,7 +1915,7 @@
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s">
         <v>165</v>
@@ -1930,7 +1927,7 @@
         <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -1938,7 +1935,7 @@
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
         <v>165</v>
@@ -1950,7 +1947,7 @@
         <v>32</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -1958,7 +1955,7 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
         <v>165</v>
@@ -1970,7 +1967,7 @@
         <v>32</v>
       </c>
       <c r="F49" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -1978,7 +1975,7 @@
         <v>9</v>
       </c>
       <c r="B50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
         <v>165</v>
@@ -1990,7 +1987,7 @@
         <v>32</v>
       </c>
       <c r="F50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -1998,7 +1995,7 @@
         <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
         <v>165</v>
@@ -2010,7 +2007,7 @@
         <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -2018,7 +2015,7 @@
         <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
         <v>165</v>
@@ -2030,7 +2027,7 @@
         <v>33</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -2038,7 +2035,7 @@
         <v>10</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
         <v>165</v>
@@ -2050,7 +2047,7 @@
         <v>33</v>
       </c>
       <c r="F53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -2058,7 +2055,7 @@
         <v>10</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
         <v>165</v>
@@ -2070,7 +2067,7 @@
         <v>33</v>
       </c>
       <c r="F54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -2078,7 +2075,7 @@
         <v>10</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
         <v>165</v>
@@ -2090,7 +2087,7 @@
         <v>33</v>
       </c>
       <c r="F55" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -2098,7 +2095,7 @@
         <v>10</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C56" t="s">
         <v>165</v>
@@ -2110,7 +2107,7 @@
         <v>33</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -2118,7 +2115,7 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
         <v>165</v>
@@ -2130,7 +2127,7 @@
         <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -2138,7 +2135,7 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
         <v>165</v>
@@ -2150,7 +2147,7 @@
         <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -2158,7 +2155,7 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
         <v>165</v>
@@ -2170,7 +2167,7 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -2178,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
         <v>165</v>
@@ -2190,7 +2187,7 @@
         <v>34</v>
       </c>
       <c r="F60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -2198,7 +2195,7 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
         <v>165</v>
@@ -2210,7 +2207,7 @@
         <v>34</v>
       </c>
       <c r="F61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -2218,7 +2215,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
         <v>165</v>
@@ -2230,7 +2227,7 @@
         <v>35</v>
       </c>
       <c r="F62" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -2238,7 +2235,7 @@
         <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
         <v>165</v>
@@ -2250,7 +2247,7 @@
         <v>35</v>
       </c>
       <c r="F63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -2258,7 +2255,7 @@
         <v>12</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
         <v>165</v>
@@ -2270,7 +2267,7 @@
         <v>35</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -2278,7 +2275,7 @@
         <v>12</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
         <v>165</v>
@@ -2290,7 +2287,7 @@
         <v>35</v>
       </c>
       <c r="F65" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -2298,7 +2295,7 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
         <v>165</v>
@@ -2310,7 +2307,7 @@
         <v>35</v>
       </c>
       <c r="F66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
@@ -2318,7 +2315,7 @@
         <v>13</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
         <v>165</v>
@@ -2330,7 +2327,7 @@
         <v>36</v>
       </c>
       <c r="F67" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
@@ -2338,7 +2335,7 @@
         <v>13</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
         <v>165</v>
@@ -2350,7 +2347,7 @@
         <v>36</v>
       </c>
       <c r="F68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
@@ -2358,7 +2355,7 @@
         <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
         <v>165</v>
@@ -2370,7 +2367,7 @@
         <v>36</v>
       </c>
       <c r="F69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
@@ -2378,7 +2375,7 @@
         <v>13</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
         <v>165</v>
@@ -2390,7 +2387,7 @@
         <v>36</v>
       </c>
       <c r="F70" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
@@ -2398,7 +2395,7 @@
         <v>13</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
         <v>165</v>
@@ -2410,7 +2407,7 @@
         <v>36</v>
       </c>
       <c r="F71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
@@ -2418,7 +2415,7 @@
         <v>14</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
         <v>165</v>
@@ -2430,7 +2427,7 @@
         <v>37</v>
       </c>
       <c r="F72" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
@@ -2438,7 +2435,7 @@
         <v>14</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
         <v>165</v>
@@ -2450,7 +2447,7 @@
         <v>37</v>
       </c>
       <c r="F73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
@@ -2458,7 +2455,7 @@
         <v>14</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
         <v>165</v>
@@ -2470,7 +2467,7 @@
         <v>37</v>
       </c>
       <c r="F74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
@@ -2478,7 +2475,7 @@
         <v>14</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
         <v>165</v>
@@ -2490,7 +2487,7 @@
         <v>37</v>
       </c>
       <c r="F75" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
@@ -2498,7 +2495,7 @@
         <v>14</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
         <v>165</v>
@@ -2510,7 +2507,7 @@
         <v>37</v>
       </c>
       <c r="F76" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
@@ -2518,7 +2515,7 @@
         <v>15</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
         <v>165</v>
@@ -2530,7 +2527,7 @@
         <v>38</v>
       </c>
       <c r="F77" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
@@ -2538,7 +2535,7 @@
         <v>15</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C78" t="s">
         <v>165</v>
@@ -2550,7 +2547,7 @@
         <v>38</v>
       </c>
       <c r="F78" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
@@ -2558,7 +2555,7 @@
         <v>15</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
         <v>165</v>
@@ -2570,7 +2567,7 @@
         <v>38</v>
       </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
@@ -2578,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
         <v>165</v>
@@ -2590,7 +2587,7 @@
         <v>38</v>
       </c>
       <c r="F80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
@@ -2598,7 +2595,7 @@
         <v>15</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
         <v>165</v>
@@ -2610,7 +2607,7 @@
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
@@ -2618,7 +2615,7 @@
         <v>16</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
         <v>165</v>
@@ -2630,7 +2627,7 @@
         <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
@@ -2638,7 +2635,7 @@
         <v>16</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
         <v>165</v>
@@ -2650,7 +2647,7 @@
         <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
@@ -2658,7 +2655,7 @@
         <v>16</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
         <v>165</v>
@@ -2670,7 +2667,7 @@
         <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
@@ -2678,7 +2675,7 @@
         <v>16</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C85" t="s">
         <v>165</v>
@@ -2690,7 +2687,7 @@
         <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
@@ -2698,7 +2695,7 @@
         <v>16</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
         <v>165</v>
@@ -2710,7 +2707,7 @@
         <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
@@ -2718,7 +2715,7 @@
         <v>17</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
         <v>165</v>
@@ -2730,7 +2727,7 @@
         <v>40</v>
       </c>
       <c r="F87" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
@@ -2738,7 +2735,7 @@
         <v>17</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
         <v>165</v>
@@ -2750,7 +2747,7 @@
         <v>40</v>
       </c>
       <c r="F88" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
@@ -2758,7 +2755,7 @@
         <v>17</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
         <v>165</v>
@@ -2770,7 +2767,7 @@
         <v>40</v>
       </c>
       <c r="F89" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
@@ -2778,7 +2775,7 @@
         <v>17</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
         <v>165</v>
@@ -2790,7 +2787,7 @@
         <v>40</v>
       </c>
       <c r="F90" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
@@ -2798,7 +2795,7 @@
         <v>17</v>
       </c>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s">
         <v>165</v>
@@ -2810,7 +2807,7 @@
         <v>40</v>
       </c>
       <c r="F91" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
@@ -2818,7 +2815,7 @@
         <v>18</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
         <v>165</v>
@@ -2830,7 +2827,7 @@
         <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
@@ -2838,7 +2835,7 @@
         <v>18</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
         <v>165</v>
@@ -2850,7 +2847,7 @@
         <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
@@ -2858,7 +2855,7 @@
         <v>18</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
         <v>165</v>
@@ -2870,7 +2867,7 @@
         <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
@@ -2878,7 +2875,7 @@
         <v>18</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C95" t="s">
         <v>165</v>
@@ -2890,7 +2887,7 @@
         <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
@@ -2898,7 +2895,7 @@
         <v>18</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C96" t="s">
         <v>165</v>
@@ -2910,7 +2907,7 @@
         <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
@@ -2918,7 +2915,7 @@
         <v>19</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
         <v>165</v>
@@ -2930,7 +2927,7 @@
         <v>42</v>
       </c>
       <c r="F97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
@@ -2938,7 +2935,7 @@
         <v>19</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
         <v>165</v>
@@ -2950,7 +2947,7 @@
         <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
@@ -2958,7 +2955,7 @@
         <v>19</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s">
         <v>165</v>
@@ -2970,7 +2967,7 @@
         <v>42</v>
       </c>
       <c r="F99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
@@ -2978,7 +2975,7 @@
         <v>19</v>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C100" t="s">
         <v>165</v>
@@ -2990,7 +2987,7 @@
         <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
@@ -2998,7 +2995,7 @@
         <v>19</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
         <v>165</v>
@@ -3010,7 +3007,7 @@
         <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
@@ -3018,7 +3015,7 @@
         <v>20</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
         <v>165</v>
@@ -3030,7 +3027,7 @@
         <v>43</v>
       </c>
       <c r="F102" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
@@ -3038,7 +3035,7 @@
         <v>20</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C103" t="s">
         <v>165</v>
@@ -3050,7 +3047,7 @@
         <v>43</v>
       </c>
       <c r="F103" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
@@ -3058,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C104" t="s">
         <v>165</v>
@@ -3070,7 +3067,7 @@
         <v>43</v>
       </c>
       <c r="F104" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
@@ -3078,7 +3075,7 @@
         <v>20</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
         <v>165</v>
@@ -3090,7 +3087,7 @@
         <v>43</v>
       </c>
       <c r="F105" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
@@ -3098,7 +3095,7 @@
         <v>20</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
         <v>165</v>
@@ -3110,7 +3107,7 @@
         <v>43</v>
       </c>
       <c r="F106" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
@@ -3118,7 +3115,7 @@
         <v>21</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
         <v>165</v>
@@ -3130,7 +3127,7 @@
         <v>44</v>
       </c>
       <c r="F107" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
@@ -3138,7 +3135,7 @@
         <v>21</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
         <v>165</v>
@@ -3150,7 +3147,7 @@
         <v>44</v>
       </c>
       <c r="F108" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
@@ -3158,7 +3155,7 @@
         <v>21</v>
       </c>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C109" t="s">
         <v>165</v>
@@ -3170,7 +3167,7 @@
         <v>44</v>
       </c>
       <c r="F109" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
@@ -3178,7 +3175,7 @@
         <v>21</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C110" t="s">
         <v>165</v>
@@ -3190,7 +3187,7 @@
         <v>44</v>
       </c>
       <c r="F110" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
@@ -3198,7 +3195,7 @@
         <v>21</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C111" t="s">
         <v>165</v>
@@ -3210,7 +3207,7 @@
         <v>44</v>
       </c>
       <c r="F111" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
@@ -3218,7 +3215,7 @@
         <v>22</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C112" t="s">
         <v>165</v>
@@ -3230,7 +3227,7 @@
         <v>45</v>
       </c>
       <c r="F112" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
@@ -3238,7 +3235,7 @@
         <v>22</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C113" t="s">
         <v>165</v>
@@ -3250,7 +3247,7 @@
         <v>45</v>
       </c>
       <c r="F113" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
@@ -3258,7 +3255,7 @@
         <v>22</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C114" t="s">
         <v>165</v>
@@ -3270,7 +3267,7 @@
         <v>45</v>
       </c>
       <c r="F114" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
@@ -3278,7 +3275,7 @@
         <v>22</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C115" t="s">
         <v>165</v>
@@ -3290,7 +3287,7 @@
         <v>45</v>
       </c>
       <c r="F115" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
@@ -3298,7 +3295,7 @@
         <v>22</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C116" t="s">
         <v>165</v>
@@ -3310,7 +3307,7 @@
         <v>45</v>
       </c>
       <c r="F116" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3341,7 +3338,7 @@
         <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
         <v>168</v>
@@ -3353,15 +3350,15 @@
         <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -3370,18 +3367,18 @@
         <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -3390,38 +3387,38 @@
         <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
       </c>
       <c r="D4" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -3430,18 +3427,18 @@
         <v>172</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -3450,18 +3447,18 @@
         <v>171</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -3470,18 +3467,18 @@
         <v>166</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -3490,38 +3487,38 @@
         <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
       </c>
       <c r="D9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -3530,18 +3527,18 @@
         <v>172</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -3550,18 +3547,18 @@
         <v>171</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -3570,18 +3567,18 @@
         <v>166</v>
       </c>
       <c r="E12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -3590,38 +3587,38 @@
         <v>173</v>
       </c>
       <c r="E13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
       </c>
       <c r="D14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -3630,18 +3627,18 @@
         <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -3650,18 +3647,18 @@
         <v>171</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -3670,18 +3667,18 @@
         <v>166</v>
       </c>
       <c r="E17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>165</v>
@@ -3690,38 +3687,38 @@
         <v>173</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>165</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>165</v>
@@ -3730,18 +3727,18 @@
         <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>165</v>
@@ -3750,18 +3747,18 @@
         <v>171</v>
       </c>
       <c r="E21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>165</v>
@@ -3770,18 +3767,18 @@
         <v>166</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
         <v>165</v>
@@ -3790,38 +3787,38 @@
         <v>173</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
         <v>165</v>
       </c>
       <c r="D24" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>165</v>
@@ -3830,18 +3827,18 @@
         <v>172</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>165</v>
@@ -3850,18 +3847,18 @@
         <v>171</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
         <v>165</v>
@@ -3870,18 +3867,18 @@
         <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
         <v>165</v>
@@ -3890,38 +3887,38 @@
         <v>173</v>
       </c>
       <c r="E28" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>165</v>
       </c>
       <c r="D29" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
         <v>165</v>
@@ -3930,18 +3927,18 @@
         <v>172</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
         <v>165</v>
@@ -3950,18 +3947,18 @@
         <v>171</v>
       </c>
       <c r="E31" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
         <v>165</v>
@@ -3970,18 +3967,18 @@
         <v>166</v>
       </c>
       <c r="E32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
         <v>165</v>
@@ -3990,38 +3987,38 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
         <v>165</v>
       </c>
       <c r="D34" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
         <v>165</v>
@@ -4030,18 +4027,18 @@
         <v>172</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
         <v>165</v>
@@ -4050,18 +4047,18 @@
         <v>171</v>
       </c>
       <c r="E36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
         <v>165</v>
@@ -4070,18 +4067,18 @@
         <v>166</v>
       </c>
       <c r="E37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A38" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
         <v>165</v>
@@ -4090,38 +4087,38 @@
         <v>173</v>
       </c>
       <c r="E38" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
         <v>165</v>
       </c>
       <c r="D39" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A40" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
         <v>165</v>
@@ -4130,18 +4127,18 @@
         <v>172</v>
       </c>
       <c r="E40" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
         <v>165</v>
@@ -4150,18 +4147,18 @@
         <v>171</v>
       </c>
       <c r="E41" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
         <v>165</v>
@@ -4170,18 +4167,18 @@
         <v>166</v>
       </c>
       <c r="E42" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
         <v>165</v>
@@ -4190,38 +4187,38 @@
         <v>173</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
         <v>165</v>
       </c>
       <c r="D44" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E44" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
         <v>165</v>
@@ -4230,18 +4227,18 @@
         <v>172</v>
       </c>
       <c r="E45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
         <v>165</v>
@@ -4250,18 +4247,18 @@
         <v>171</v>
       </c>
       <c r="E46" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s">
         <v>165</v>
@@ -4270,18 +4267,18 @@
         <v>166</v>
       </c>
       <c r="E47" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
         <v>165</v>
@@ -4290,38 +4287,38 @@
         <v>173</v>
       </c>
       <c r="E48" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
         <v>165</v>
       </c>
       <c r="D49" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E49" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
         <v>165</v>
@@ -4330,18 +4327,18 @@
         <v>172</v>
       </c>
       <c r="E50" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
         <v>165</v>
@@ -4350,18 +4347,18 @@
         <v>171</v>
       </c>
       <c r="E51" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
         <v>165</v>
@@ -4370,18 +4367,18 @@
         <v>166</v>
       </c>
       <c r="E52" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
         <v>165</v>
@@ -4390,38 +4387,38 @@
         <v>173</v>
       </c>
       <c r="E53" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
         <v>165</v>
       </c>
       <c r="D54" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E54" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
         <v>165</v>
@@ -4430,18 +4427,18 @@
         <v>172</v>
       </c>
       <c r="E55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F55" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C56" t="s">
         <v>165</v>
@@ -4450,18 +4447,18 @@
         <v>171</v>
       </c>
       <c r="E56" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
         <v>165</v>
@@ -4470,18 +4467,18 @@
         <v>166</v>
       </c>
       <c r="E57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
         <v>165</v>
@@ -4490,38 +4487,38 @@
         <v>173</v>
       </c>
       <c r="E58" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
         <v>165</v>
       </c>
       <c r="D59" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
         <v>165</v>
@@ -4530,18 +4527,18 @@
         <v>172</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
         <v>165</v>
@@ -4550,18 +4547,18 @@
         <v>171</v>
       </c>
       <c r="E61" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
         <v>165</v>
@@ -4570,18 +4567,18 @@
         <v>166</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F62" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
         <v>165</v>
@@ -4590,38 +4587,38 @@
         <v>173</v>
       </c>
       <c r="E63" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
         <v>165</v>
       </c>
       <c r="D64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
         <v>165</v>
@@ -4630,18 +4627,18 @@
         <v>172</v>
       </c>
       <c r="E65" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F65" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
         <v>165</v>
@@ -4650,18 +4647,18 @@
         <v>171</v>
       </c>
       <c r="E66" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C67" t="s">
         <v>165</v>
@@ -4670,18 +4667,18 @@
         <v>166</v>
       </c>
       <c r="E67" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F67" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C68" t="s">
         <v>165</v>
@@ -4690,38 +4687,38 @@
         <v>173</v>
       </c>
       <c r="E68" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C69" t="s">
         <v>165</v>
       </c>
       <c r="D69" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E69" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F69" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B70" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C70" t="s">
         <v>165</v>
@@ -4730,18 +4727,18 @@
         <v>172</v>
       </c>
       <c r="E70" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C71" t="s">
         <v>165</v>
@@ -4750,18 +4747,18 @@
         <v>171</v>
       </c>
       <c r="E71" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F71" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
         <v>165</v>
@@ -4770,18 +4767,18 @@
         <v>166</v>
       </c>
       <c r="E72" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F72" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C73" t="s">
         <v>165</v>
@@ -4790,38 +4787,38 @@
         <v>173</v>
       </c>
       <c r="E73" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F73" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C74" t="s">
         <v>165</v>
       </c>
       <c r="D74" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E74" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F74" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C75" t="s">
         <v>165</v>
@@ -4830,18 +4827,18 @@
         <v>172</v>
       </c>
       <c r="E75" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F75" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C76" t="s">
         <v>165</v>
@@ -4850,18 +4847,18 @@
         <v>171</v>
       </c>
       <c r="E76" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F76" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B77" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C77" t="s">
         <v>165</v>
@@ -4870,18 +4867,18 @@
         <v>166</v>
       </c>
       <c r="E77" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F77" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B78" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C78" t="s">
         <v>165</v>
@@ -4890,38 +4887,38 @@
         <v>173</v>
       </c>
       <c r="E78" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F78" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C79" t="s">
         <v>165</v>
       </c>
       <c r="D79" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E79" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F79" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C80" t="s">
         <v>165</v>
@@ -4930,18 +4927,18 @@
         <v>172</v>
       </c>
       <c r="E80" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F80" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A81" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B81" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C81" t="s">
         <v>165</v>
@@ -4950,18 +4947,18 @@
         <v>171</v>
       </c>
       <c r="E81" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F81" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A82" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B82" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C82" t="s">
         <v>165</v>
@@ -4970,18 +4967,18 @@
         <v>166</v>
       </c>
       <c r="E82" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F82" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A83" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B83" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C83" t="s">
         <v>165</v>
@@ -4990,38 +4987,38 @@
         <v>173</v>
       </c>
       <c r="E83" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F83" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A84" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B84" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C84" t="s">
         <v>165</v>
       </c>
       <c r="D84" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E84" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F84" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A85" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C85" t="s">
         <v>165</v>
@@ -5030,18 +5027,18 @@
         <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F85" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A86" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B86" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C86" t="s">
         <v>165</v>
@@ -5050,18 +5047,18 @@
         <v>171</v>
       </c>
       <c r="E86" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F86" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A87" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B87" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C87" t="s">
         <v>165</v>
@@ -5070,18 +5067,18 @@
         <v>166</v>
       </c>
       <c r="E87" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F87" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A88" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B88" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C88" t="s">
         <v>165</v>
@@ -5090,38 +5087,38 @@
         <v>173</v>
       </c>
       <c r="E88" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F88" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A89" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C89" t="s">
         <v>165</v>
       </c>
       <c r="D89" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E89" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F89" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A90" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B90" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C90" t="s">
         <v>165</v>
@@ -5130,18 +5127,18 @@
         <v>172</v>
       </c>
       <c r="E90" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F90" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A91" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B91" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C91" t="s">
         <v>165</v>
@@ -5150,18 +5147,18 @@
         <v>171</v>
       </c>
       <c r="E91" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F91" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A92" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B92" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
         <v>165</v>
@@ -5170,18 +5167,18 @@
         <v>166</v>
       </c>
       <c r="E92" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F92" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A93" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B93" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C93" t="s">
         <v>165</v>
@@ -5190,38 +5187,38 @@
         <v>173</v>
       </c>
       <c r="E93" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F93" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A94" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B94" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C94" t="s">
         <v>165</v>
       </c>
       <c r="D94" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E94" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F94" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A95" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B95" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C95" t="s">
         <v>165</v>
@@ -5230,18 +5227,18 @@
         <v>172</v>
       </c>
       <c r="E95" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F95" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A96" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B96" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C96" t="s">
         <v>165</v>
@@ -5250,18 +5247,18 @@
         <v>171</v>
       </c>
       <c r="E96" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F96" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A97" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B97" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C97" t="s">
         <v>165</v>
@@ -5270,18 +5267,18 @@
         <v>166</v>
       </c>
       <c r="E97" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A98" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C98" t="s">
         <v>165</v>
@@ -5290,38 +5287,38 @@
         <v>173</v>
       </c>
       <c r="E98" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F98" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B99" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C99" t="s">
         <v>165</v>
       </c>
       <c r="D99" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E99" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F99" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A100" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B100" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C100" t="s">
         <v>165</v>
@@ -5330,18 +5327,18 @@
         <v>172</v>
       </c>
       <c r="E100" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F100" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A101" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B101" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C101" t="s">
         <v>165</v>
@@ -5350,18 +5347,18 @@
         <v>171</v>
       </c>
       <c r="E101" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F101" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A102" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B102" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C102" t="s">
         <v>165</v>
@@ -5370,18 +5367,18 @@
         <v>166</v>
       </c>
       <c r="E102" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F102" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A103" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B103" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C103" t="s">
         <v>165</v>
@@ -5390,38 +5387,38 @@
         <v>173</v>
       </c>
       <c r="E103" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F103" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A104" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B104" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C104" t="s">
         <v>165</v>
       </c>
       <c r="D104" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E104" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F104" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A105" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B105" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C105" t="s">
         <v>165</v>
@@ -5430,18 +5427,18 @@
         <v>172</v>
       </c>
       <c r="E105" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F105" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A106" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B106" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C106" t="s">
         <v>165</v>
@@ -5450,18 +5447,18 @@
         <v>171</v>
       </c>
       <c r="E106" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F106" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="B107" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C107" t="s">
         <v>165</v>
@@ -5470,18 +5467,18 @@
         <v>166</v>
       </c>
       <c r="E107" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F107" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A108" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="B108" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C108" t="s">
         <v>165</v>
@@ -5490,38 +5487,38 @@
         <v>173</v>
       </c>
       <c r="E108" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F108" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A109" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="B109" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C109" t="s">
         <v>165</v>
       </c>
       <c r="D109" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E109" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F109" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A110" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="B110" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C110" t="s">
         <v>165</v>
@@ -5530,18 +5527,18 @@
         <v>172</v>
       </c>
       <c r="E110" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F110" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A111" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="B111" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C111" t="s">
         <v>165</v>
@@ -5550,18 +5547,18 @@
         <v>171</v>
       </c>
       <c r="E111" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F111" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A112" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B112" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C112" t="s">
         <v>165</v>
@@ -5570,18 +5567,18 @@
         <v>166</v>
       </c>
       <c r="E112" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F112" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A113" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B113" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C113" t="s">
         <v>165</v>
@@ -5590,38 +5587,38 @@
         <v>173</v>
       </c>
       <c r="E113" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F113" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A114" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B114" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C114" t="s">
         <v>165</v>
       </c>
       <c r="D114" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E114" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F114" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A115" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B115" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C115" t="s">
         <v>165</v>
@@ -5630,18 +5627,18 @@
         <v>172</v>
       </c>
       <c r="E115" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F115" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A116" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B116" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C116" t="s">
         <v>165</v>
@@ -5650,18 +5647,18 @@
         <v>171</v>
       </c>
       <c r="E116" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F116" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A117" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B117" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C117" t="s">
         <v>165</v>
@@ -5670,18 +5667,18 @@
         <v>166</v>
       </c>
       <c r="E117" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F117" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A118" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B118" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C118" t="s">
         <v>165</v>
@@ -5690,38 +5687,38 @@
         <v>173</v>
       </c>
       <c r="E118" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F118" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A119" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B119" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C119" t="s">
         <v>165</v>
       </c>
       <c r="D119" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E119" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F119" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A120" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B120" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C120" t="s">
         <v>165</v>
@@ -5730,18 +5727,18 @@
         <v>172</v>
       </c>
       <c r="E120" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F120" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A121" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B121" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C121" t="s">
         <v>165</v>
@@ -5750,18 +5747,18 @@
         <v>171</v>
       </c>
       <c r="E121" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F121" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A122" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B122" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C122" t="s">
         <v>165</v>
@@ -5770,18 +5767,18 @@
         <v>166</v>
       </c>
       <c r="E122" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F122" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A123" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B123" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C123" t="s">
         <v>165</v>
@@ -5790,38 +5787,38 @@
         <v>173</v>
       </c>
       <c r="E123" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F123" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A124" t="s">
+        <v>192</v>
+      </c>
+      <c r="B124" t="s">
+        <v>188</v>
+      </c>
+      <c r="C124" t="s">
+        <v>165</v>
+      </c>
+      <c r="D124" t="s">
         <v>184</v>
       </c>
-      <c r="B124" t="s">
-        <v>191</v>
-      </c>
-      <c r="C124" t="s">
-        <v>165</v>
-      </c>
-      <c r="D124" t="s">
-        <v>187</v>
-      </c>
       <c r="E124" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F124" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A125" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B125" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C125" t="s">
         <v>165</v>
@@ -5830,18 +5827,18 @@
         <v>172</v>
       </c>
       <c r="E125" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F125" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A126" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B126" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C126" t="s">
         <v>165</v>
@@ -5850,18 +5847,18 @@
         <v>171</v>
       </c>
       <c r="E126" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F126" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A127" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="B127" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C127" t="s">
         <v>165</v>
@@ -5870,18 +5867,18 @@
         <v>166</v>
       </c>
       <c r="E127" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F127" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A128" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="B128" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C128" t="s">
         <v>165</v>
@@ -5890,38 +5887,38 @@
         <v>173</v>
       </c>
       <c r="E128" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F128" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A129" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="B129" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C129" t="s">
         <v>165</v>
       </c>
       <c r="D129" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E129" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F129" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A130" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="B130" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C130" t="s">
         <v>165</v>
@@ -5930,18 +5927,18 @@
         <v>172</v>
       </c>
       <c r="E130" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F130" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A131" t="s">
-        <v>183</v>
+        <v>90</v>
       </c>
       <c r="B131" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C131" t="s">
         <v>165</v>
@@ -5950,18 +5947,18 @@
         <v>171</v>
       </c>
       <c r="E131" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F131" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A132" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="B132" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C132" t="s">
         <v>165</v>
@@ -5970,18 +5967,18 @@
         <v>166</v>
       </c>
       <c r="E132" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F132" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A133" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="B133" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C133" t="s">
         <v>165</v>
@@ -5990,38 +5987,38 @@
         <v>173</v>
       </c>
       <c r="E133" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F133" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A134" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="B134" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C134" t="s">
         <v>165</v>
       </c>
       <c r="D134" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E134" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F134" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A135" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="B135" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C135" t="s">
         <v>165</v>
@@ -6030,18 +6027,18 @@
         <v>172</v>
       </c>
       <c r="E135" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F135" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A136" t="s">
-        <v>94</v>
+        <v>182</v>
       </c>
       <c r="B136" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C136" t="s">
         <v>165</v>
@@ -6050,18 +6047,18 @@
         <v>171</v>
       </c>
       <c r="E136" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F136" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A137" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="B137" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C137" t="s">
         <v>165</v>
@@ -6070,18 +6067,18 @@
         <v>166</v>
       </c>
       <c r="E137" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F137" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A138" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="B138" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C138" t="s">
         <v>165</v>
@@ -6090,38 +6087,38 @@
         <v>173</v>
       </c>
       <c r="E138" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F138" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A139" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="B139" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C139" t="s">
         <v>165</v>
       </c>
       <c r="D139" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E139" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F139" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A140" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="B140" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C140" t="s">
         <v>165</v>
@@ -6130,18 +6127,18 @@
         <v>172</v>
       </c>
       <c r="E140" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F140" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A141" t="s">
-        <v>96</v>
+        <v>181</v>
       </c>
       <c r="B141" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C141" t="s">
         <v>165</v>
@@ -6150,18 +6147,18 @@
         <v>171</v>
       </c>
       <c r="E141" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="F141" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A142" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B142" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C142" t="s">
         <v>165</v>
@@ -6170,18 +6167,18 @@
         <v>166</v>
       </c>
       <c r="E142" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F142" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A143" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B143" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C143" t="s">
         <v>165</v>
@@ -6190,38 +6187,38 @@
         <v>173</v>
       </c>
       <c r="E143" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F143" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A144" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B144" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C144" t="s">
         <v>165</v>
       </c>
       <c r="D144" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E144" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F144" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A145" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B145" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C145" t="s">
         <v>165</v>
@@ -6230,18 +6227,18 @@
         <v>172</v>
       </c>
       <c r="E145" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F145" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A146" t="s">
-        <v>182</v>
+        <v>94</v>
       </c>
       <c r="B146" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C146" t="s">
         <v>165</v>
@@ -6250,18 +6247,18 @@
         <v>171</v>
       </c>
       <c r="E146" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F146" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A147" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B147" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C147" t="s">
         <v>165</v>
@@ -6270,18 +6267,18 @@
         <v>166</v>
       </c>
       <c r="E147" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F147" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A148" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B148" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C148" t="s">
         <v>165</v>
@@ -6290,38 +6287,38 @@
         <v>173</v>
       </c>
       <c r="E148" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F148" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A149" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B149" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C149" t="s">
         <v>165</v>
       </c>
       <c r="D149" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E149" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F149" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A150" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B150" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C150" t="s">
         <v>165</v>
@@ -6330,18 +6327,18 @@
         <v>172</v>
       </c>
       <c r="E150" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F150" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A151" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B151" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C151" t="s">
         <v>165</v>
@@ -6350,18 +6347,18 @@
         <v>171</v>
       </c>
       <c r="E151" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F151" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A152" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B152" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C152" t="s">
         <v>165</v>
@@ -6370,18 +6367,18 @@
         <v>166</v>
       </c>
       <c r="E152" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F152" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A153" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B153" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C153" t="s">
         <v>165</v>
@@ -6390,38 +6387,38 @@
         <v>173</v>
       </c>
       <c r="E153" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F153" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A154" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B154" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C154" t="s">
         <v>165</v>
       </c>
       <c r="D154" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E154" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F154" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A155" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B155" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C155" t="s">
         <v>165</v>
@@ -6430,18 +6427,18 @@
         <v>172</v>
       </c>
       <c r="E155" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F155" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A156" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B156" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C156" t="s">
         <v>165</v>
@@ -6450,18 +6447,18 @@
         <v>171</v>
       </c>
       <c r="E156" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F156" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A157" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="B157" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C157" t="s">
         <v>165</v>
@@ -6470,18 +6467,18 @@
         <v>166</v>
       </c>
       <c r="E157" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F157" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A158" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="B158" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C158" t="s">
         <v>165</v>
@@ -6490,38 +6487,38 @@
         <v>173</v>
       </c>
       <c r="E158" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F158" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A159" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="B159" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C159" t="s">
         <v>165</v>
       </c>
       <c r="D159" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E159" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F159" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A160" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="B160" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C160" t="s">
         <v>165</v>
@@ -6530,18 +6527,18 @@
         <v>172</v>
       </c>
       <c r="E160" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F160" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A161" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="B161" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C161" t="s">
         <v>165</v>
@@ -6550,10 +6547,10 @@
         <v>171</v>
       </c>
       <c r="E161" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F161" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.15">
@@ -6561,7 +6558,7 @@
         <v>104</v>
       </c>
       <c r="B162" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C162" t="s">
         <v>165</v>
@@ -6573,7 +6570,7 @@
         <v>105</v>
       </c>
       <c r="F162" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.15">
@@ -6581,7 +6578,7 @@
         <v>104</v>
       </c>
       <c r="B163" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C163" t="s">
         <v>165</v>
@@ -6593,7 +6590,7 @@
         <v>105</v>
       </c>
       <c r="F163" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.15">
@@ -6601,19 +6598,19 @@
         <v>104</v>
       </c>
       <c r="B164" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C164" t="s">
         <v>165</v>
       </c>
       <c r="D164" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E164" t="s">
         <v>105</v>
       </c>
       <c r="F164" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.15">
@@ -6621,7 +6618,7 @@
         <v>104</v>
       </c>
       <c r="B165" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C165" t="s">
         <v>165</v>
@@ -6633,7 +6630,7 @@
         <v>105</v>
       </c>
       <c r="F165" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.15">
@@ -6641,7 +6638,7 @@
         <v>104</v>
       </c>
       <c r="B166" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C166" t="s">
         <v>165</v>
@@ -6653,7 +6650,7 @@
         <v>105</v>
       </c>
       <c r="F166" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.15">
@@ -6661,7 +6658,7 @@
         <v>106</v>
       </c>
       <c r="B167" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C167" t="s">
         <v>165</v>
@@ -6673,7 +6670,7 @@
         <v>107</v>
       </c>
       <c r="F167" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.15">
@@ -6681,7 +6678,7 @@
         <v>106</v>
       </c>
       <c r="B168" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C168" t="s">
         <v>165</v>
@@ -6693,7 +6690,7 @@
         <v>107</v>
       </c>
       <c r="F168" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.15">
@@ -6701,19 +6698,19 @@
         <v>106</v>
       </c>
       <c r="B169" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C169" t="s">
         <v>165</v>
       </c>
       <c r="D169" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E169" t="s">
         <v>107</v>
       </c>
       <c r="F169" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.15">
@@ -6721,7 +6718,7 @@
         <v>106</v>
       </c>
       <c r="B170" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C170" t="s">
         <v>165</v>
@@ -6733,7 +6730,7 @@
         <v>107</v>
       </c>
       <c r="F170" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.15">
@@ -6741,7 +6738,7 @@
         <v>106</v>
       </c>
       <c r="B171" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C171" t="s">
         <v>165</v>
@@ -6753,7 +6750,7 @@
         <v>107</v>
       </c>
       <c r="F171" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.15">
@@ -6761,7 +6758,7 @@
         <v>108</v>
       </c>
       <c r="B172" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C172" t="s">
         <v>165</v>
@@ -6773,7 +6770,7 @@
         <v>109</v>
       </c>
       <c r="F172" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.15">
@@ -6781,7 +6778,7 @@
         <v>108</v>
       </c>
       <c r="B173" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C173" t="s">
         <v>165</v>
@@ -6793,7 +6790,7 @@
         <v>109</v>
       </c>
       <c r="F173" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.15">
@@ -6801,19 +6798,19 @@
         <v>108</v>
       </c>
       <c r="B174" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C174" t="s">
         <v>165</v>
       </c>
       <c r="D174" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E174" t="s">
         <v>109</v>
       </c>
       <c r="F174" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.15">
@@ -6821,7 +6818,7 @@
         <v>108</v>
       </c>
       <c r="B175" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C175" t="s">
         <v>165</v>
@@ -6833,7 +6830,7 @@
         <v>109</v>
       </c>
       <c r="F175" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.15">
@@ -6841,7 +6838,7 @@
         <v>108</v>
       </c>
       <c r="B176" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C176" t="s">
         <v>165</v>
@@ -6853,7 +6850,7 @@
         <v>109</v>
       </c>
       <c r="F176" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.15">
@@ -6861,7 +6858,7 @@
         <v>110</v>
       </c>
       <c r="B177" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C177" t="s">
         <v>165</v>
@@ -6873,7 +6870,7 @@
         <v>111</v>
       </c>
       <c r="F177" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.15">
@@ -6881,7 +6878,7 @@
         <v>110</v>
       </c>
       <c r="B178" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C178" t="s">
         <v>165</v>
@@ -6893,7 +6890,7 @@
         <v>111</v>
       </c>
       <c r="F178" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.15">
@@ -6901,19 +6898,19 @@
         <v>110</v>
       </c>
       <c r="B179" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C179" t="s">
         <v>165</v>
       </c>
       <c r="D179" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E179" t="s">
         <v>111</v>
       </c>
       <c r="F179" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.15">
@@ -6921,7 +6918,7 @@
         <v>110</v>
       </c>
       <c r="B180" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C180" t="s">
         <v>165</v>
@@ -6933,7 +6930,7 @@
         <v>111</v>
       </c>
       <c r="F180" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.15">
@@ -6941,7 +6938,7 @@
         <v>110</v>
       </c>
       <c r="B181" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C181" t="s">
         <v>165</v>
@@ -6953,7 +6950,7 @@
         <v>111</v>
       </c>
       <c r="F181" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.15">
@@ -6961,7 +6958,7 @@
         <v>112</v>
       </c>
       <c r="B182" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C182" t="s">
         <v>165</v>
@@ -6973,7 +6970,7 @@
         <v>113</v>
       </c>
       <c r="F182" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.15">
@@ -6981,7 +6978,7 @@
         <v>112</v>
       </c>
       <c r="B183" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C183" t="s">
         <v>165</v>
@@ -6993,7 +6990,7 @@
         <v>113</v>
       </c>
       <c r="F183" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.15">
@@ -7001,19 +6998,19 @@
         <v>112</v>
       </c>
       <c r="B184" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C184" t="s">
         <v>165</v>
       </c>
       <c r="D184" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E184" t="s">
         <v>113</v>
       </c>
       <c r="F184" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.15">
@@ -7021,7 +7018,7 @@
         <v>112</v>
       </c>
       <c r="B185" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C185" t="s">
         <v>165</v>
@@ -7033,7 +7030,7 @@
         <v>113</v>
       </c>
       <c r="F185" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.15">
@@ -7041,7 +7038,7 @@
         <v>112</v>
       </c>
       <c r="B186" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C186" t="s">
         <v>165</v>
@@ -7053,11 +7050,15 @@
         <v>113</v>
       </c>
       <c r="F186" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F186"/>
+  <autoFilter ref="A1:F186">
+    <sortState ref="A2:F186">
+      <sortCondition ref="A1:A186"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -7084,7 +7085,7 @@
         <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
         <v>168</v>
@@ -7096,7 +7097,7 @@
         <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -7104,7 +7105,7 @@
         <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -7116,7 +7117,7 @@
         <v>115</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -7124,7 +7125,7 @@
         <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -7136,7 +7137,7 @@
         <v>115</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -7144,7 +7145,7 @@
         <v>114</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -7156,7 +7157,7 @@
         <v>115</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -7164,7 +7165,7 @@
         <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -7176,7 +7177,7 @@
         <v>115</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -7184,7 +7185,7 @@
         <v>114</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -7196,7 +7197,7 @@
         <v>115</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -7204,7 +7205,7 @@
         <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -7216,7 +7217,7 @@
         <v>117</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -7224,7 +7225,7 @@
         <v>116</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -7236,7 +7237,7 @@
         <v>117</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -7244,7 +7245,7 @@
         <v>116</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -7256,7 +7257,7 @@
         <v>117</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -7264,7 +7265,7 @@
         <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -7276,7 +7277,7 @@
         <v>117</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -7284,7 +7285,7 @@
         <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -7296,7 +7297,7 @@
         <v>117</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -7304,7 +7305,7 @@
         <v>118</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -7316,7 +7317,7 @@
         <v>119</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -7324,7 +7325,7 @@
         <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -7336,7 +7337,7 @@
         <v>119</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -7344,7 +7345,7 @@
         <v>118</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -7356,7 +7357,7 @@
         <v>119</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -7364,7 +7365,7 @@
         <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -7376,7 +7377,7 @@
         <v>119</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -7384,7 +7385,7 @@
         <v>118</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -7396,7 +7397,7 @@
         <v>119</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -7404,7 +7405,7 @@
         <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -7416,7 +7417,7 @@
         <v>121</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -7424,7 +7425,7 @@
         <v>120</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>165</v>
@@ -7436,7 +7437,7 @@
         <v>121</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -7444,7 +7445,7 @@
         <v>120</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>165</v>
@@ -7456,7 +7457,7 @@
         <v>121</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -7464,7 +7465,7 @@
         <v>120</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>165</v>
@@ -7476,7 +7477,7 @@
         <v>121</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -7484,7 +7485,7 @@
         <v>120</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>165</v>
@@ -7496,7 +7497,7 @@
         <v>121</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -7504,7 +7505,7 @@
         <v>122</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>165</v>
@@ -7516,7 +7517,7 @@
         <v>123</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -7524,7 +7525,7 @@
         <v>122</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
         <v>165</v>
@@ -7536,7 +7537,7 @@
         <v>123</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -7544,7 +7545,7 @@
         <v>122</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
         <v>165</v>
@@ -7556,7 +7557,7 @@
         <v>123</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -7564,7 +7565,7 @@
         <v>122</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>165</v>
@@ -7576,7 +7577,7 @@
         <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -7584,7 +7585,7 @@
         <v>122</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>165</v>
@@ -7596,7 +7597,7 @@
         <v>123</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -7604,7 +7605,7 @@
         <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
         <v>165</v>
@@ -7616,7 +7617,7 @@
         <v>125</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -7624,7 +7625,7 @@
         <v>124</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
         <v>165</v>
@@ -7636,7 +7637,7 @@
         <v>125</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -7644,7 +7645,7 @@
         <v>124</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>165</v>
@@ -7656,7 +7657,7 @@
         <v>125</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -7664,7 +7665,7 @@
         <v>124</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
         <v>165</v>
@@ -7676,7 +7677,7 @@
         <v>125</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -7684,7 +7685,7 @@
         <v>124</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
         <v>165</v>
@@ -7696,7 +7697,7 @@
         <v>125</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -7704,7 +7705,7 @@
         <v>126</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
         <v>165</v>
@@ -7716,7 +7717,7 @@
         <v>127</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -7724,7 +7725,7 @@
         <v>126</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
         <v>165</v>
@@ -7736,7 +7737,7 @@
         <v>127</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -7744,7 +7745,7 @@
         <v>126</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
         <v>165</v>
@@ -7756,7 +7757,7 @@
         <v>127</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -7764,7 +7765,7 @@
         <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
         <v>165</v>
@@ -7776,7 +7777,7 @@
         <v>127</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -7784,7 +7785,7 @@
         <v>126</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
         <v>165</v>
@@ -7796,7 +7797,7 @@
         <v>127</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -7804,7 +7805,7 @@
         <v>128</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
         <v>165</v>
@@ -7816,7 +7817,7 @@
         <v>129</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -7824,7 +7825,7 @@
         <v>128</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
         <v>165</v>
@@ -7836,7 +7837,7 @@
         <v>129</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -7844,7 +7845,7 @@
         <v>128</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
         <v>165</v>
@@ -7856,7 +7857,7 @@
         <v>129</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -7864,7 +7865,7 @@
         <v>128</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
         <v>165</v>
@@ -7876,7 +7877,7 @@
         <v>129</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -7884,7 +7885,7 @@
         <v>128</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
         <v>165</v>
@@ -7896,7 +7897,7 @@
         <v>129</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -7904,7 +7905,7 @@
         <v>130</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
         <v>165</v>
@@ -7916,7 +7917,7 @@
         <v>131</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -7924,7 +7925,7 @@
         <v>130</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
         <v>165</v>
@@ -7936,7 +7937,7 @@
         <v>131</v>
       </c>
       <c r="F43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -7944,7 +7945,7 @@
         <v>130</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
         <v>165</v>
@@ -7956,7 +7957,7 @@
         <v>131</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -7964,7 +7965,7 @@
         <v>130</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
         <v>165</v>
@@ -7976,7 +7977,7 @@
         <v>131</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -7984,7 +7985,7 @@
         <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
         <v>165</v>
@@ -7996,7 +7997,7 @@
         <v>131</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
@@ -8004,7 +8005,7 @@
         <v>132</v>
       </c>
       <c r="B47" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C47" t="s">
         <v>165</v>
@@ -8016,7 +8017,7 @@
         <v>133</v>
       </c>
       <c r="F47" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
@@ -8024,7 +8025,7 @@
         <v>132</v>
       </c>
       <c r="B48" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C48" t="s">
         <v>165</v>
@@ -8036,7 +8037,7 @@
         <v>133</v>
       </c>
       <c r="F48" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.15">
@@ -8044,7 +8045,7 @@
         <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
         <v>165</v>
@@ -8056,7 +8057,7 @@
         <v>133</v>
       </c>
       <c r="F49" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.15">
@@ -8064,7 +8065,7 @@
         <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C50" t="s">
         <v>165</v>
@@ -8076,7 +8077,7 @@
         <v>133</v>
       </c>
       <c r="F50" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
@@ -8084,7 +8085,7 @@
         <v>132</v>
       </c>
       <c r="B51" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C51" t="s">
         <v>165</v>
@@ -8096,7 +8097,7 @@
         <v>133</v>
       </c>
       <c r="F51" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
@@ -8104,7 +8105,7 @@
         <v>134</v>
       </c>
       <c r="B52" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C52" t="s">
         <v>165</v>
@@ -8116,7 +8117,7 @@
         <v>135</v>
       </c>
       <c r="F52" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
@@ -8124,7 +8125,7 @@
         <v>134</v>
       </c>
       <c r="B53" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C53" t="s">
         <v>165</v>
@@ -8136,7 +8137,7 @@
         <v>135</v>
       </c>
       <c r="F53" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
@@ -8144,7 +8145,7 @@
         <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C54" t="s">
         <v>165</v>
@@ -8156,7 +8157,7 @@
         <v>135</v>
       </c>
       <c r="F54" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.15">
@@ -8164,7 +8165,7 @@
         <v>134</v>
       </c>
       <c r="B55" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C55" t="s">
         <v>165</v>
@@ -8176,7 +8177,7 @@
         <v>135</v>
       </c>
       <c r="F55" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.15">
@@ -8184,7 +8185,7 @@
         <v>134</v>
       </c>
       <c r="B56" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C56" t="s">
         <v>165</v>
@@ -8196,7 +8197,7 @@
         <v>135</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
@@ -8204,7 +8205,7 @@
         <v>136</v>
       </c>
       <c r="B57" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C57" t="s">
         <v>165</v>
@@ -8216,7 +8217,7 @@
         <v>137</v>
       </c>
       <c r="F57" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
@@ -8224,7 +8225,7 @@
         <v>136</v>
       </c>
       <c r="B58" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C58" t="s">
         <v>165</v>
@@ -8236,7 +8237,7 @@
         <v>137</v>
       </c>
       <c r="F58" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
@@ -8244,7 +8245,7 @@
         <v>136</v>
       </c>
       <c r="B59" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C59" t="s">
         <v>165</v>
@@ -8256,7 +8257,7 @@
         <v>137</v>
       </c>
       <c r="F59" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.15">
@@ -8264,7 +8265,7 @@
         <v>136</v>
       </c>
       <c r="B60" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C60" t="s">
         <v>165</v>
@@ -8276,7 +8277,7 @@
         <v>137</v>
       </c>
       <c r="F60" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.15">
@@ -8284,7 +8285,7 @@
         <v>136</v>
       </c>
       <c r="B61" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C61" t="s">
         <v>165</v>
@@ -8296,7 +8297,7 @@
         <v>137</v>
       </c>
       <c r="F61" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.15">
@@ -8304,7 +8305,7 @@
         <v>138</v>
       </c>
       <c r="B62" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C62" t="s">
         <v>165</v>
@@ -8316,7 +8317,7 @@
         <v>139</v>
       </c>
       <c r="F62" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.15">
@@ -8324,7 +8325,7 @@
         <v>138</v>
       </c>
       <c r="B63" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C63" t="s">
         <v>165</v>
@@ -8336,7 +8337,7 @@
         <v>139</v>
       </c>
       <c r="F63" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
@@ -8344,7 +8345,7 @@
         <v>138</v>
       </c>
       <c r="B64" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C64" t="s">
         <v>165</v>
@@ -8356,7 +8357,7 @@
         <v>139</v>
       </c>
       <c r="F64" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
@@ -8364,7 +8365,7 @@
         <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C65" t="s">
         <v>165</v>
@@ -8376,7 +8377,7 @@
         <v>139</v>
       </c>
       <c r="F65" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
@@ -8384,7 +8385,7 @@
         <v>138</v>
       </c>
       <c r="B66" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C66" t="s">
         <v>165</v>
@@ -8396,7 +8397,7 @@
         <v>139</v>
       </c>
       <c r="F66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -8427,7 +8428,7 @@
         <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C1" t="s">
         <v>168</v>
@@ -8439,7 +8440,7 @@
         <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -8447,7 +8448,7 @@
         <v>140</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -8459,7 +8460,7 @@
         <v>141</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -8467,7 +8468,7 @@
         <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -8479,7 +8480,7 @@
         <v>141</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -8487,7 +8488,7 @@
         <v>140</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -8499,7 +8500,7 @@
         <v>141</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -8507,7 +8508,7 @@
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -8519,7 +8520,7 @@
         <v>141</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -8527,7 +8528,7 @@
         <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -8539,7 +8540,7 @@
         <v>141</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -8547,7 +8548,7 @@
         <v>177</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -8559,7 +8560,7 @@
         <v>142</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -8567,7 +8568,7 @@
         <v>177</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -8579,7 +8580,7 @@
         <v>142</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -8587,7 +8588,7 @@
         <v>177</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -8599,7 +8600,7 @@
         <v>142</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -8607,7 +8608,7 @@
         <v>177</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -8619,7 +8620,7 @@
         <v>142</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -8627,7 +8628,7 @@
         <v>177</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -8639,7 +8640,7 @@
         <v>142</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -8647,7 +8648,7 @@
         <v>176</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -8659,7 +8660,7 @@
         <v>144</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -8667,7 +8668,7 @@
         <v>143</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -8679,7 +8680,7 @@
         <v>144</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -8687,7 +8688,7 @@
         <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -8699,7 +8700,7 @@
         <v>144</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -8707,7 +8708,7 @@
         <v>143</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -8719,7 +8720,7 @@
         <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -8727,7 +8728,7 @@
         <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -8739,7 +8740,7 @@
         <v>144</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -8747,7 +8748,7 @@
         <v>178</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -8759,7 +8760,7 @@
         <v>145</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -8767,7 +8768,7 @@
         <v>178</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>165</v>
@@ -8779,7 +8780,7 @@
         <v>145</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -8787,7 +8788,7 @@
         <v>178</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>165</v>
@@ -8799,7 +8800,7 @@
         <v>145</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -8807,7 +8808,7 @@
         <v>178</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>165</v>
@@ -8819,7 +8820,7 @@
         <v>145</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -8827,7 +8828,7 @@
         <v>178</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>165</v>
@@ -8839,7 +8840,7 @@
         <v>145</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -8847,7 +8848,7 @@
         <v>179</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>165</v>
@@ -8859,7 +8860,7 @@
         <v>146</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -8867,7 +8868,7 @@
         <v>179</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
         <v>165</v>
@@ -8879,7 +8880,7 @@
         <v>146</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -8887,7 +8888,7 @@
         <v>179</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
         <v>165</v>
@@ -8899,7 +8900,7 @@
         <v>146</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -8907,7 +8908,7 @@
         <v>179</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>165</v>
@@ -8919,7 +8920,7 @@
         <v>146</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -8927,7 +8928,7 @@
         <v>179</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>165</v>
@@ -8939,7 +8940,7 @@
         <v>146</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
@@ -8947,7 +8948,7 @@
         <v>147</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C27" t="s">
         <v>165</v>
@@ -8959,7 +8960,7 @@
         <v>148</v>
       </c>
       <c r="F27" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
@@ -8967,7 +8968,7 @@
         <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C28" t="s">
         <v>165</v>
@@ -8979,7 +8980,7 @@
         <v>148</v>
       </c>
       <c r="F28" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
@@ -8987,7 +8988,7 @@
         <v>147</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C29" t="s">
         <v>165</v>
@@ -8999,7 +9000,7 @@
         <v>148</v>
       </c>
       <c r="F29" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
@@ -9007,7 +9008,7 @@
         <v>147</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C30" t="s">
         <v>165</v>
@@ -9019,7 +9020,7 @@
         <v>148</v>
       </c>
       <c r="F30" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
@@ -9027,7 +9028,7 @@
         <v>147</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C31" t="s">
         <v>165</v>
@@ -9039,7 +9040,7 @@
         <v>148</v>
       </c>
       <c r="F31" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
@@ -9047,7 +9048,7 @@
         <v>149</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C32" t="s">
         <v>165</v>
@@ -9059,7 +9060,7 @@
         <v>150</v>
       </c>
       <c r="F32" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
@@ -9067,7 +9068,7 @@
         <v>149</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C33" t="s">
         <v>165</v>
@@ -9079,7 +9080,7 @@
         <v>150</v>
       </c>
       <c r="F33" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
@@ -9087,7 +9088,7 @@
         <v>149</v>
       </c>
       <c r="B34" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C34" t="s">
         <v>165</v>
@@ -9099,7 +9100,7 @@
         <v>150</v>
       </c>
       <c r="F34" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
@@ -9107,7 +9108,7 @@
         <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C35" t="s">
         <v>165</v>
@@ -9119,7 +9120,7 @@
         <v>150</v>
       </c>
       <c r="F35" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
@@ -9127,7 +9128,7 @@
         <v>149</v>
       </c>
       <c r="B36" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C36" t="s">
         <v>165</v>
@@ -9139,7 +9140,7 @@
         <v>150</v>
       </c>
       <c r="F36" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
@@ -9147,7 +9148,7 @@
         <v>151</v>
       </c>
       <c r="B37" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
         <v>165</v>
@@ -9159,7 +9160,7 @@
         <v>152</v>
       </c>
       <c r="F37" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
@@ -9167,7 +9168,7 @@
         <v>151</v>
       </c>
       <c r="B38" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C38" t="s">
         <v>165</v>
@@ -9179,7 +9180,7 @@
         <v>152</v>
       </c>
       <c r="F38" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
@@ -9187,7 +9188,7 @@
         <v>151</v>
       </c>
       <c r="B39" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C39" t="s">
         <v>165</v>
@@ -9199,7 +9200,7 @@
         <v>152</v>
       </c>
       <c r="F39" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
@@ -9207,7 +9208,7 @@
         <v>151</v>
       </c>
       <c r="B40" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C40" t="s">
         <v>165</v>
@@ -9219,7 +9220,7 @@
         <v>152</v>
       </c>
       <c r="F40" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
@@ -9227,7 +9228,7 @@
         <v>151</v>
       </c>
       <c r="B41" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C41" t="s">
         <v>165</v>
@@ -9239,7 +9240,7 @@
         <v>152</v>
       </c>
       <c r="F41" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
@@ -9247,7 +9248,7 @@
         <v>153</v>
       </c>
       <c r="B42" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C42" t="s">
         <v>165</v>
@@ -9259,7 +9260,7 @@
         <v>154</v>
       </c>
       <c r="F42" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
@@ -9267,7 +9268,7 @@
         <v>153</v>
       </c>
       <c r="B43" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C43" t="s">
         <v>165</v>
@@ -9279,7 +9280,7 @@
         <v>154</v>
       </c>
       <c r="F43" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
@@ -9287,7 +9288,7 @@
         <v>153</v>
       </c>
       <c r="B44" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C44" t="s">
         <v>165</v>
@@ -9299,7 +9300,7 @@
         <v>154</v>
       </c>
       <c r="F44" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
@@ -9307,7 +9308,7 @@
         <v>153</v>
       </c>
       <c r="B45" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C45" t="s">
         <v>165</v>
@@ -9319,7 +9320,7 @@
         <v>154</v>
       </c>
       <c r="F45" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
@@ -9327,7 +9328,7 @@
         <v>153</v>
       </c>
       <c r="B46" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C46" t="s">
         <v>165</v>
@@ -9339,7 +9340,7 @@
         <v>154</v>
       </c>
       <c r="F46" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -9369,7 +9370,7 @@
         <v>167</v>
       </c>
       <c r="B1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C1" t="s">
         <v>168</v>
@@ -9381,7 +9382,7 @@
         <v>170</v>
       </c>
       <c r="F1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -9389,7 +9390,7 @@
         <v>155</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C2" t="s">
         <v>165</v>
@@ -9401,7 +9402,7 @@
         <v>156</v>
       </c>
       <c r="F2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -9409,7 +9410,7 @@
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C3" t="s">
         <v>165</v>
@@ -9421,7 +9422,7 @@
         <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
@@ -9429,7 +9430,7 @@
         <v>155</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C4" t="s">
         <v>165</v>
@@ -9441,7 +9442,7 @@
         <v>156</v>
       </c>
       <c r="F4" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
@@ -9449,7 +9450,7 @@
         <v>155</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>165</v>
@@ -9461,7 +9462,7 @@
         <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
@@ -9469,7 +9470,7 @@
         <v>155</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C6" t="s">
         <v>165</v>
@@ -9481,7 +9482,7 @@
         <v>156</v>
       </c>
       <c r="F6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -9489,7 +9490,7 @@
         <v>157</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
         <v>165</v>
@@ -9501,7 +9502,7 @@
         <v>158</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
@@ -9509,7 +9510,7 @@
         <v>157</v>
       </c>
       <c r="B8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C8" t="s">
         <v>165</v>
@@ -9521,7 +9522,7 @@
         <v>158</v>
       </c>
       <c r="F8" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
@@ -9529,7 +9530,7 @@
         <v>157</v>
       </c>
       <c r="B9" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C9" t="s">
         <v>165</v>
@@ -9541,7 +9542,7 @@
         <v>158</v>
       </c>
       <c r="F9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
@@ -9549,7 +9550,7 @@
         <v>157</v>
       </c>
       <c r="B10" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C10" t="s">
         <v>165</v>
@@ -9561,7 +9562,7 @@
         <v>158</v>
       </c>
       <c r="F10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
@@ -9569,7 +9570,7 @@
         <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C11" t="s">
         <v>165</v>
@@ -9581,7 +9582,7 @@
         <v>158</v>
       </c>
       <c r="F11" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
@@ -9589,7 +9590,7 @@
         <v>159</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12" t="s">
         <v>165</v>
@@ -9601,7 +9602,7 @@
         <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
@@ -9609,7 +9610,7 @@
         <v>159</v>
       </c>
       <c r="B13" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C13" t="s">
         <v>165</v>
@@ -9621,7 +9622,7 @@
         <v>160</v>
       </c>
       <c r="F13" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
@@ -9629,7 +9630,7 @@
         <v>159</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C14" t="s">
         <v>165</v>
@@ -9641,7 +9642,7 @@
         <v>160</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
@@ -9649,7 +9650,7 @@
         <v>159</v>
       </c>
       <c r="B15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C15" t="s">
         <v>165</v>
@@ -9661,7 +9662,7 @@
         <v>160</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.15">
@@ -9669,7 +9670,7 @@
         <v>159</v>
       </c>
       <c r="B16" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C16" t="s">
         <v>165</v>
@@ -9681,7 +9682,7 @@
         <v>160</v>
       </c>
       <c r="F16" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
@@ -9689,7 +9690,7 @@
         <v>161</v>
       </c>
       <c r="B17" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C17" t="s">
         <v>165</v>
@@ -9701,7 +9702,7 @@
         <v>162</v>
       </c>
       <c r="F17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
@@ -9709,7 +9710,7 @@
         <v>161</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C18" t="s">
         <v>165</v>
@@ -9721,7 +9722,7 @@
         <v>162</v>
       </c>
       <c r="F18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
@@ -9729,7 +9730,7 @@
         <v>161</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C19" t="s">
         <v>165</v>
@@ -9741,7 +9742,7 @@
         <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
@@ -9749,7 +9750,7 @@
         <v>161</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C20" t="s">
         <v>165</v>
@@ -9761,7 +9762,7 @@
         <v>162</v>
       </c>
       <c r="F20" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
@@ -9769,7 +9770,7 @@
         <v>161</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C21" t="s">
         <v>165</v>
@@ -9781,7 +9782,7 @@
         <v>162</v>
       </c>
       <c r="F21" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
@@ -9789,7 +9790,7 @@
         <v>163</v>
       </c>
       <c r="B22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C22" t="s">
         <v>165</v>
@@ -9801,7 +9802,7 @@
         <v>164</v>
       </c>
       <c r="F22" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
@@ -9809,7 +9810,7 @@
         <v>163</v>
       </c>
       <c r="B23" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C23" t="s">
         <v>165</v>
@@ -9821,7 +9822,7 @@
         <v>164</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
@@ -9829,7 +9830,7 @@
         <v>163</v>
       </c>
       <c r="B24" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C24" t="s">
         <v>165</v>
@@ -9841,7 +9842,7 @@
         <v>164</v>
       </c>
       <c r="F24" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
@@ -9849,7 +9850,7 @@
         <v>163</v>
       </c>
       <c r="B25" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C25" t="s">
         <v>165</v>
@@ -9861,7 +9862,7 @@
         <v>164</v>
       </c>
       <c r="F25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
@@ -9869,7 +9870,7 @@
         <v>163</v>
       </c>
       <c r="B26" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C26" t="s">
         <v>165</v>
@@ -9881,7 +9882,7 @@
         <v>164</v>
       </c>
       <c r="F26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
